--- a/biology/Médecine/Rétropéritoine/Rétropéritoine.xlsx
+++ b/biology/Médecine/Rétropéritoine/Rétropéritoine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9trop%C3%A9ritoine</t>
+          <t>Rétropéritoine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rétropéritoine est la partie de l'abdomen en arrière de la cavité péritonéale. Il contient des organes des appareils urinaire et digestif ainsi que des vaisseaux et nerfs à destination de l'abdomen, du pelvis et des membres inférieurs. Ainsi on peut considérer cet espace comme une prolongation du médiastin.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9trop%C3%A9ritoine</t>
+          <t>Rétropéritoine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Contenu</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les viscères rétropéritonéaux principaux sont :
 les reins ;
@@ -546,7 +560,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9trop%C3%A9ritoine</t>
+          <t>Rétropéritoine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -564,7 +578,9 @@
           <t>Pathologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rétropéritoine peut être le siège de toutes les maladies spécifiques de chacun de ses organes.
 Une pathologie spécifique de la région est la fibrose rétropéritonéale.
